--- a/form.xlsx
+++ b/form.xlsx
@@ -36,6 +36,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">روز
 </t>
@@ -50,6 +51,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ماه</t>
         </r>
@@ -63,6 +65,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">روز
 </t>
@@ -77,6 +80,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">روز
 </t>
@@ -91,6 +95,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">روز
 </t>
@@ -105,6 +110,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">سال</t>
         </r>
@@ -118,6 +124,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ماه</t>
         </r>
@@ -131,6 +138,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ماه</t>
         </r>
@@ -144,6 +152,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ماه</t>
         </r>
@@ -157,6 +166,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">کد و نام مدرسه متوسطه یک بر روی کارنامه رایانه ای ثبت شده است
 </t>
@@ -171,6 +181,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">سال</t>
         </r>
@@ -184,6 +195,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">سال</t>
         </r>
@@ -197,6 +209,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">سال</t>
         </r>
@@ -210,6 +223,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">توضیح</t>
         </r>
@@ -245,6 +259,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">توضیح</t>
         </r>
@@ -311,6 +326,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">توضیح</t>
         </r>
@@ -346,6 +362,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">شماره با کد کامل نوشته شود</t>
         </r>
@@ -369,6 +386,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">داشتن معرفی نامه بنیاد شهید شهرستان، اداره جانبازی و یا اداره آموزش و پرورش ضروری است</t>
         </r>
@@ -392,6 +410,7 @@
             <color rgb="FF000000"/>
             <rFont val="Vazirmatn"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">درج دقیق کد پستی </t>
         </r>
@@ -4353,6 +4372,7 @@
       <color rgb="FF000000"/>
       <name val="Vazirmatn"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4374,12 +4394,14 @@
       <color rgb="FFBFBFBF"/>
       <name val="Vazirmatn"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFA6A6A6"/>
       <name val="Vazirmatn"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="24"/>
@@ -4523,6 +4545,7 @@
       <color rgb="FF000000"/>
       <name val="Vazirmatn"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
@@ -4556,6 +4579,7 @@
       <color rgb="FFC00000"/>
       <name val="Vazirmatn"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
@@ -4618,6 +4642,7 @@
       <color rgb="FF000000"/>
       <name val="Vazirmatn"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -4638,6 +4663,7 @@
       <color rgb="FFFF0000"/>
       <name val="Vazirmatn"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4651,6 +4677,7 @@
       <color rgb="FFFF0000"/>
       <name val="Vazirmatn"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -4664,6 +4691,7 @@
       <color rgb="FF000000"/>
       <name val="Vazirmatn"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
@@ -4787,6 +4815,7 @@
       <color rgb="FF000000"/>
       <name val="Vazirmatn"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -4824,6 +4853,7 @@
       <color rgb="FF000000"/>
       <name val="Vazirmatn"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5163,65 +5193,65 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
@@ -5524,7 +5554,7 @@
   <dimension ref="A1:AP107"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="100" zoomScalePageLayoutView="95" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5547,9 +5577,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="1" width="2.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="6.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="9.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="4.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="5.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="4.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="4.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="2.71"/>
@@ -5988,35 +6018,35 @@
         <v>66</v>
       </c>
       <c r="H9" s="30"/>
-      <c r="I9" s="46"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="40" t="s">
         <v>67</v>
       </c>
       <c r="K9" s="40"/>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="48" t="s">
+      <c r="M9" s="46"/>
+      <c r="N9" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="48"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
       <c r="R9" s="31" t="s">
         <v>69</v>
       </c>
       <c r="S9" s="31"/>
       <c r="T9" s="31"/>
-      <c r="U9" s="49"/>
+      <c r="U9" s="48"/>
       <c r="V9" s="31" t="s">
         <v>70</v>
       </c>
       <c r="W9" s="31"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
       <c r="AH9" s="14" t="s">
         <v>71</v>
       </c>
@@ -6034,46 +6064,46 @@
       <c r="A10" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="51" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
       <c r="H10" s="30"/>
-      <c r="I10" s="46"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="47" t="s">
+      <c r="K10" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="52" t="s">
+      <c r="L10" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="52"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54" t="s">
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
       <c r="W10" s="31" t="s">
         <v>82</v>
       </c>
       <c r="X10" s="31"/>
       <c r="Y10" s="31"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
       <c r="AG10" s="15" t="s">
         <v>83</v>
       </c>
@@ -6158,35 +6188,35 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58" t="s">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60" t="s">
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
       <c r="M12" s="41" t="s">
         <v>102</v>
       </c>
       <c r="N12" s="41"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
       <c r="V12" s="61" t="s">
         <v>103</v>
       </c>
@@ -6224,8 +6254,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="63" t="s">
         <v>111</v>
       </c>
@@ -6272,31 +6302,31 @@
         <v>116</v>
       </c>
       <c r="B14" s="66"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60" t="s">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
       <c r="M14" s="41" t="s">
         <v>102</v>
       </c>
       <c r="N14" s="41"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="61" t="s">
         <v>103</v>
       </c>
@@ -6393,15 +6423,15 @@
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
       <c r="Q16" s="40" t="s">
         <v>127</v>
       </c>
@@ -6462,7 +6492,7 @@
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
-      <c r="I17" s="46"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="40" t="s">
         <v>138</v>
       </c>
@@ -6535,25 +6565,25 @@
       <c r="I18" s="44"/>
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
-      <c r="L18" s="48" t="s">
+      <c r="L18" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
       <c r="T18" s="30"/>
       <c r="U18" s="30"/>
-      <c r="V18" s="48" t="s">
+      <c r="V18" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
       <c r="AA18" s="30"/>
       <c r="AD18" s="15" t="s">
         <v>153</v>
@@ -6598,28 +6628,28 @@
       <c r="D19" s="31"/>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
-      <c r="N19" s="48" t="s">
+      <c r="N19" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
       <c r="Q19" s="30"/>
-      <c r="R19" s="48" t="s">
+      <c r="R19" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
       <c r="W19" s="30"/>
       <c r="X19" s="30"/>
       <c r="Y19" s="30"/>
@@ -6674,13 +6704,13 @@
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="48" t="s">
+      <c r="K20" s="49"/>
+      <c r="L20" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
       <c r="P20" s="70"/>
       <c r="Q20" s="70"/>
       <c r="R20" s="70"/>
@@ -6843,14 +6873,14 @@
         <v>195</v>
       </c>
       <c r="O23" s="74"/>
-      <c r="P23" s="47"/>
+      <c r="P23" s="46"/>
       <c r="Q23" s="74" t="s">
         <v>196</v>
       </c>
       <c r="R23" s="74"/>
       <c r="S23" s="74"/>
       <c r="T23" s="74"/>
-      <c r="U23" s="47"/>
+      <c r="U23" s="46"/>
       <c r="V23" s="74" t="s">
         <v>197</v>
       </c>
@@ -8495,7 +8525,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="206">
+  <mergeCells count="208">
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="L1:N1"/>
@@ -8536,6 +8566,7 @@
     <mergeCell ref="P8:R8"/>
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
@@ -8545,6 +8576,7 @@
     <mergeCell ref="X9:AA9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="P10:Q10"/>
